--- a/data/myResult.xlsx
+++ b/data/myResult.xlsx
@@ -6,7 +6,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="mySheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -14,10 +14,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
-    <t xml:space="preserve">NAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLASS_NAME</t>
+    <t xml:space="preserve">이름</t>
+  </si>
+  <si>
+    <t xml:space="preserve">반이름</t>
   </si>
   <si>
     <t xml:space="preserve">김길동</t>
